--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/1.XuLyBH/XLBH2307_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/1.XuLyBH/XLBH2307_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="56" r:id="rId1"/>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3562,13 +3562,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3580,6 +3573,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3590,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showZeros="0" topLeftCell="N2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5839,13 +5839,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5857,6 +5850,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5867,8 +5867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8088,6 +8088,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8099,13 +8106,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8116,7 +8116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -10347,13 +10347,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10365,6 +10358,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12859,6 +12859,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12870,13 +12877,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/1.XuLyBH/XLBH2307_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/1.XuLyBH/XLBH2307_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="56" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="124">
   <si>
     <t>STT</t>
   </si>
@@ -388,6 +388,30 @@
   </si>
   <si>
     <t xml:space="preserve">Nâng cấp FW </t>
+  </si>
+  <si>
+    <t>TG102LE-4G (STM)</t>
+  </si>
+  <si>
+    <t>Le4.2.03.03--.230718</t>
+  </si>
+  <si>
+    <t>Thay MCU, nâng cấp FW module GSM, FW thiết bị</t>
+  </si>
+  <si>
+    <t>MCU,NCFW</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>Thay IC giao tiếp</t>
+  </si>
+  <si>
+    <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:I15"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1331,9 @@
       <c r="B6" s="40">
         <v>45119</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="40">
+        <v>45126</v>
+      </c>
       <c r="D6" s="39" t="s">
         <v>55</v>
       </c>
@@ -1364,7 +1390,9 @@
       <c r="B7" s="40">
         <v>45119</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="40">
+        <v>45126</v>
+      </c>
       <c r="D7" s="39" t="s">
         <v>55</v>
       </c>
@@ -1419,7 +1447,9 @@
       <c r="B8" s="40">
         <v>45119</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="40">
+        <v>45126</v>
+      </c>
       <c r="D8" s="39" t="s">
         <v>55</v>
       </c>
@@ -1474,7 +1504,9 @@
       <c r="B9" s="40">
         <v>45119</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="40">
+        <v>45126</v>
+      </c>
       <c r="D9" s="39" t="s">
         <v>55</v>
       </c>
@@ -1529,7 +1561,9 @@
       <c r="B10" s="40">
         <v>45119</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="40">
+        <v>45126</v>
+      </c>
       <c r="D10" s="39" t="s">
         <v>55</v>
       </c>
@@ -1584,7 +1618,9 @@
       <c r="B11" s="40">
         <v>45119</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="40">
+        <v>45126</v>
+      </c>
       <c r="D11" s="39" t="s">
         <v>55</v>
       </c>
@@ -1639,7 +1675,9 @@
       <c r="B12" s="40">
         <v>45119</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="40">
+        <v>45126</v>
+      </c>
       <c r="D12" s="39" t="s">
         <v>55</v>
       </c>
@@ -1696,7 +1734,9 @@
       <c r="B13" s="40">
         <v>45119</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="40">
+        <v>45126</v>
+      </c>
       <c r="D13" s="39" t="s">
         <v>55</v>
       </c>
@@ -1751,7 +1791,9 @@
       <c r="B14" s="40">
         <v>45119</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="40">
+        <v>45126</v>
+      </c>
       <c r="D14" s="39" t="s">
         <v>55</v>
       </c>
@@ -1806,7 +1848,9 @@
       <c r="B15" s="40">
         <v>45119</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="40">
+        <v>45126</v>
+      </c>
       <c r="D15" s="39" t="s">
         <v>55</v>
       </c>
@@ -1821,15 +1865,31 @@
       <c r="I15" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
+      <c r="J15" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>114</v>
+      </c>
       <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="46"/>
+      <c r="O15" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="S15" s="47"/>
       <c r="T15" s="56"/>
       <c r="U15" s="59"/>
@@ -1842,23 +1902,49 @@
       <c r="A16" s="47">
         <v>11</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="40">
+        <v>45119</v>
+      </c>
       <c r="C16" s="40"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="48"/>
+      <c r="D16" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="48">
+        <v>861881051086503</v>
+      </c>
       <c r="F16" s="49"/>
-      <c r="G16" s="39"/>
+      <c r="G16" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="H16" s="39"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
+      <c r="I16" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="46"/>
+      <c r="O16" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="S16" s="47"/>
       <c r="T16" s="56"/>
       <c r="U16" s="60"/>
@@ -1871,23 +1957,51 @@
       <c r="A17" s="47">
         <v>12</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="40">
+        <v>45119</v>
+      </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="48"/>
+      <c r="D17" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="48">
+        <v>861881051088376</v>
+      </c>
       <c r="F17" s="49"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="45"/>
+      <c r="G17" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="46"/>
+      <c r="O17" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="S17" s="47"/>
       <c r="T17" s="56"/>
       <c r="U17" s="56"/>
@@ -1898,23 +2012,49 @@
       <c r="A18" s="47">
         <v>13</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="40">
+        <v>45119</v>
+      </c>
       <c r="C18" s="40"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="48"/>
+      <c r="D18" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="48">
+        <v>861881051089465</v>
+      </c>
       <c r="F18" s="49"/>
-      <c r="G18" s="39"/>
+      <c r="G18" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="H18" s="43"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45"/>
+      <c r="I18" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="46"/>
+      <c r="O18" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="S18" s="47"/>
       <c r="T18" s="56"/>
       <c r="U18" s="56"/>
@@ -1925,23 +2065,49 @@
       <c r="A19" s="47">
         <v>14</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="40">
+        <v>45119</v>
+      </c>
       <c r="C19" s="40"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="48"/>
+      <c r="D19" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="48">
+        <v>861881051088178</v>
+      </c>
       <c r="F19" s="49"/>
-      <c r="G19" s="39"/>
+      <c r="G19" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="H19" s="43"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
+      <c r="I19" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="46"/>
+      <c r="O19" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="R19" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="S19" s="47"/>
       <c r="T19" s="56"/>
       <c r="U19" s="57" t="s">
@@ -1956,23 +2122,51 @@
       <c r="A20" s="47">
         <v>15</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="40">
+        <v>45119</v>
+      </c>
       <c r="C20" s="40"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="48"/>
+      <c r="D20" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="48">
+        <v>861881051084326</v>
+      </c>
       <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
+      <c r="G20" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="46"/>
+      <c r="O20" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="R20" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="S20" s="47"/>
       <c r="T20" s="56"/>
       <c r="U20" s="3" t="s">
@@ -1987,23 +2181,49 @@
       <c r="A21" s="47">
         <v>16</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="40">
+        <v>45119</v>
+      </c>
       <c r="C21" s="40"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="48"/>
+      <c r="D21" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="48">
+        <v>861881051077809</v>
+      </c>
       <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
+      <c r="G21" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="H21" s="43"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
+      <c r="I21" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="M21" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="46"/>
+      <c r="O21" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="S21" s="47"/>
       <c r="T21" s="56"/>
       <c r="U21" s="3" t="s">
@@ -2019,23 +2239,49 @@
       <c r="A22" s="47">
         <v>17</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="40">
+        <v>45119</v>
+      </c>
       <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="48"/>
+      <c r="D22" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="48">
+        <v>861881051083385</v>
+      </c>
       <c r="F22" s="49"/>
-      <c r="G22" s="39"/>
+      <c r="G22" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="H22" s="47"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
+      <c r="I22" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="46"/>
+      <c r="O22" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="S22" s="47"/>
       <c r="T22" s="56"/>
       <c r="U22" s="3" t="s">
@@ -2048,23 +2294,49 @@
       <c r="A23" s="47">
         <v>18</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="40">
+        <v>45119</v>
+      </c>
       <c r="C23" s="40"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="48"/>
+      <c r="D23" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="48">
+        <v>861881051079565</v>
+      </c>
       <c r="F23" s="49"/>
-      <c r="G23" s="39"/>
+      <c r="G23" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="H23" s="47"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
+      <c r="I23" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="M23" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="46"/>
+      <c r="O23" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="R23" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="S23" s="47"/>
       <c r="T23" s="56"/>
       <c r="U23" s="56"/>
@@ -2075,23 +2347,49 @@
       <c r="A24" s="47">
         <v>19</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="40">
+        <v>45119</v>
+      </c>
       <c r="C24" s="40"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="48"/>
+      <c r="D24" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="48">
+        <v>861881051084748</v>
+      </c>
       <c r="F24" s="49"/>
-      <c r="G24" s="39"/>
+      <c r="G24" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="H24" s="47"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
+      <c r="I24" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="M24" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="46"/>
+      <c r="O24" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="R24" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="S24" s="47"/>
       <c r="T24" s="56"/>
       <c r="U24" s="56"/>
@@ -2157,7 +2455,7 @@
       </c>
       <c r="V26" s="3">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W26" s="56"/>
     </row>
@@ -3590,8 +3888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="N2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S7"/>
+    <sheetView showZeros="0" topLeftCell="J2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3790,7 +4088,9 @@
       <c r="B6" s="40">
         <v>45119</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="40">
+        <v>45126</v>
+      </c>
       <c r="D6" s="39" t="s">
         <v>103</v>
       </c>
@@ -3854,25 +4154,30 @@
       <c r="G7" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="39"/>
       <c r="I7" s="42"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
+      <c r="K7" s="45" t="s">
+        <v>104</v>
+      </c>
       <c r="L7" s="44" t="s">
         <v>106</v>
       </c>
       <c r="M7" s="45" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="N7" s="43"/>
       <c r="O7" s="43" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="P7" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="46"/>
+      <c r="Q7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="S7" s="47"/>
       <c r="T7" s="56"/>
       <c r="U7" s="59"/>
@@ -4860,7 +5165,7 @@
       </c>
       <c r="V40" s="3">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="56"/>
     </row>
@@ -5867,8 +6172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="M2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView showZeros="0" topLeftCell="L2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6083,9 +6388,13 @@
       <c r="L6" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>107</v>
+      </c>
       <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
+      <c r="O6" s="43" t="s">
+        <v>108</v>
+      </c>
       <c r="P6" s="45" t="s">
         <v>66</v>
       </c>
@@ -7109,7 +7418,7 @@
       </c>
       <c r="V40" s="3">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="55"/>
     </row>
@@ -8116,8 +8425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showZeros="0" topLeftCell="K2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8332,9 +8641,13 @@
       <c r="L6" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>122</v>
+      </c>
       <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
+      <c r="O6" s="43" t="s">
+        <v>123</v>
+      </c>
       <c r="P6" s="45" t="s">
         <v>66</v>
       </c>
@@ -9400,7 +9713,7 @@
       </c>
       <c r="V41" s="3">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="52"/>
     </row>
@@ -10376,7 +10689,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/1.XuLyBH/XLBH2307_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/1.XuLyBH/XLBH2307_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="56" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="128">
   <si>
     <t>STT</t>
   </si>
@@ -412,6 +412,18 @@
   </si>
   <si>
     <t>KS</t>
+  </si>
+  <si>
+    <t>ID mới: WM21051100S0357 / 00BD000A9E</t>
+  </si>
+  <si>
+    <t>ID mới: 202210110168</t>
+  </si>
+  <si>
+    <t>Đổi thiết bị mới</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showZeros="0" topLeftCell="J8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1917,9 @@
       <c r="B16" s="40">
         <v>45119</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="40">
+        <v>45132</v>
+      </c>
       <c r="D16" s="39" t="s">
         <v>116</v>
       </c>
@@ -1960,7 +1974,9 @@
       <c r="B17" s="40">
         <v>45119</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="40">
+        <v>45132</v>
+      </c>
       <c r="D17" s="39" t="s">
         <v>116</v>
       </c>
@@ -2015,7 +2031,9 @@
       <c r="B18" s="40">
         <v>45119</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="40">
+        <v>45132</v>
+      </c>
       <c r="D18" s="39" t="s">
         <v>116</v>
       </c>
@@ -2068,7 +2086,9 @@
       <c r="B19" s="40">
         <v>45119</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="40">
+        <v>45132</v>
+      </c>
       <c r="D19" s="39" t="s">
         <v>116</v>
       </c>
@@ -2125,7 +2145,9 @@
       <c r="B20" s="40">
         <v>45119</v>
       </c>
-      <c r="C20" s="40"/>
+      <c r="C20" s="40">
+        <v>45132</v>
+      </c>
       <c r="D20" s="39" t="s">
         <v>116</v>
       </c>
@@ -2184,7 +2206,9 @@
       <c r="B21" s="40">
         <v>45119</v>
       </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="40">
+        <v>45132</v>
+      </c>
       <c r="D21" s="39" t="s">
         <v>116</v>
       </c>
@@ -2242,7 +2266,9 @@
       <c r="B22" s="40">
         <v>45119</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="40">
+        <v>45132</v>
+      </c>
       <c r="D22" s="39" t="s">
         <v>116</v>
       </c>
@@ -2297,7 +2323,9 @@
       <c r="B23" s="40">
         <v>45119</v>
       </c>
-      <c r="C23" s="40"/>
+      <c r="C23" s="40">
+        <v>45132</v>
+      </c>
       <c r="D23" s="39" t="s">
         <v>116</v>
       </c>
@@ -2350,7 +2378,9 @@
       <c r="B24" s="40">
         <v>45119</v>
       </c>
-      <c r="C24" s="40"/>
+      <c r="C24" s="40">
+        <v>45132</v>
+      </c>
       <c r="D24" s="39" t="s">
         <v>116</v>
       </c>
@@ -3888,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showZeros="0" topLeftCell="I2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4143,7 +4173,9 @@
       <c r="B7" s="40">
         <v>45119</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="40">
+        <v>45132</v>
+      </c>
       <c r="D7" s="39" t="s">
         <v>103</v>
       </c>
@@ -6172,8 +6204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6372,7 +6404,9 @@
       <c r="B6" s="40">
         <v>45119</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="40">
+        <v>45132</v>
+      </c>
       <c r="D6" s="39" t="s">
         <v>99</v>
       </c>
@@ -6381,7 +6415,9 @@
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="H6" s="47" t="s">
+        <v>125</v>
+      </c>
       <c r="I6" s="42"/>
       <c r="J6" s="44"/>
       <c r="K6" s="45"/>
@@ -8425,8 +8461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8625,7 +8661,9 @@
       <c r="B6" s="40">
         <v>45119</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="40">
+        <v>45132</v>
+      </c>
       <c r="D6" s="39" t="s">
         <v>95</v>
       </c>
@@ -8633,7 +8671,9 @@
         <v>96</v>
       </c>
       <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
+      <c r="G6" s="39" t="s">
+        <v>127</v>
+      </c>
       <c r="H6" s="39"/>
       <c r="I6" s="42"/>
       <c r="J6" s="44"/>
@@ -8670,7 +8710,9 @@
       <c r="B7" s="40">
         <v>45119</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="40">
+        <v>45132</v>
+      </c>
       <c r="D7" s="39" t="s">
         <v>95</v>
       </c>
@@ -8678,17 +8720,25 @@
         <v>97</v>
       </c>
       <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="G7" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>124</v>
+      </c>
       <c r="I7" s="42"/>
       <c r="J7" s="45"/>
       <c r="K7" s="45"/>
       <c r="L7" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="M7" s="45"/>
+      <c r="M7" s="45" t="s">
+        <v>126</v>
+      </c>
       <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
+      <c r="O7" s="43" t="s">
+        <v>108</v>
+      </c>
       <c r="P7" s="45" t="s">
         <v>66</v>
       </c>
@@ -9681,7 +9731,7 @@
       </c>
       <c r="V40" s="3">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="52"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/1.XuLyBH/XLBH2307_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/1.XuLyBH/XLBH2307_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="56" r:id="rId1"/>
@@ -795,30 +795,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -836,6 +812,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1176,41 +1176,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -1243,57 +1243,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="63" t="s">
+      <c r="K4" s="58"/>
+      <c r="L4" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="58" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1324,16 +1324,16 @@
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="65"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="71"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="S6" s="47"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="58" t="s">
+      <c r="U6" s="66" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="S7" s="47"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="59"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="S8" s="47"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="59"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="S9" s="47"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="59"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="S10" s="47"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="59"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="S11" s="47"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="59"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="S12" s="47"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="58" t="s">
+      <c r="U12" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="S13" s="47"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="59"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="S14" s="47"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="59"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="S15" s="47"/>
       <c r="T15" s="56"/>
-      <c r="U15" s="59"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="S16" s="47"/>
       <c r="T16" s="56"/>
-      <c r="U16" s="60"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3890,6 +3890,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3901,13 +3908,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3918,7 +3918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L7" sqref="L7:M7"/>
     </sheetView>
   </sheetViews>
@@ -3951,41 +3951,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -4018,57 +4018,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="63" t="s">
+      <c r="K4" s="58"/>
+      <c r="L4" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="58" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4099,16 +4099,16 @@
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="65"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="71"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="S6" s="47"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="58" t="s">
+      <c r="U6" s="66" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="S7" s="47"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="59"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -4241,7 +4241,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="47"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="59"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="47"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="59"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -4299,7 +4299,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="47"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="59"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="47"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="59"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -4357,7 +4357,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="47"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="58" t="s">
+      <c r="U12" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4388,7 +4388,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="47"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="59"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="47"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="59"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -4446,7 +4446,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="47"/>
       <c r="T15" s="56"/>
-      <c r="U15" s="59"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="47"/>
       <c r="T16" s="56"/>
-      <c r="U16" s="60"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -6176,6 +6176,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6187,13 +6194,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6237,41 +6237,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -6304,57 +6304,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="63" t="s">
+      <c r="K4" s="58"/>
+      <c r="L4" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="58" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="54" t="s">
         <v>1</v>
       </c>
@@ -6385,16 +6385,16 @@
       <c r="K5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="65"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="71"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6438,7 +6438,7 @@
       <c r="R6" s="46"/>
       <c r="S6" s="47"/>
       <c r="T6" s="55"/>
-      <c r="U6" s="58" t="s">
+      <c r="U6" s="66" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6469,7 +6469,7 @@
       <c r="R7" s="46"/>
       <c r="S7" s="47"/>
       <c r="T7" s="55"/>
-      <c r="U7" s="59"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -6498,7 +6498,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="47"/>
       <c r="T8" s="55"/>
-      <c r="U8" s="59"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -6527,7 +6527,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="47"/>
       <c r="T9" s="55"/>
-      <c r="U9" s="59"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -6556,7 +6556,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="47"/>
       <c r="T10" s="55"/>
-      <c r="U10" s="59"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -6585,7 +6585,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="47"/>
       <c r="T11" s="55"/>
-      <c r="U11" s="59"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -6614,7 +6614,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="47"/>
       <c r="T12" s="55"/>
-      <c r="U12" s="58" t="s">
+      <c r="U12" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6645,7 +6645,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="47"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="59"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -6674,7 +6674,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="47"/>
       <c r="T14" s="55"/>
-      <c r="U14" s="59"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -6703,7 +6703,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="47"/>
       <c r="T15" s="55"/>
-      <c r="U15" s="59"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -6732,7 +6732,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="47"/>
       <c r="T16" s="55"/>
-      <c r="U16" s="60"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -8433,13 +8433,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8451,6 +8444,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8461,7 +8461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -8494,41 +8494,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -8561,57 +8561,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="63" t="s">
+      <c r="K4" s="58"/>
+      <c r="L4" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="58" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -8642,16 +8642,16 @@
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="65"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="71"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8695,7 +8695,7 @@
       <c r="R6" s="46"/>
       <c r="S6" s="47"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="58" t="s">
+      <c r="U6" s="66" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8746,7 +8746,7 @@
       <c r="R7" s="46"/>
       <c r="S7" s="47"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="59"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -8775,7 +8775,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="47"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="59"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -8804,7 +8804,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="47"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="59"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -8833,7 +8833,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="47"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="59"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -8862,7 +8862,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="47"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="59"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -8891,7 +8891,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="47"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="58" t="s">
+      <c r="U12" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8922,7 +8922,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="47"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="59"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -8951,7 +8951,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="47"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="59"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -8980,7 +8980,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="47"/>
       <c r="T15" s="52"/>
-      <c r="U15" s="59"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -9009,7 +9009,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="47"/>
       <c r="T16" s="52"/>
-      <c r="U16" s="60"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -10710,6 +10710,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10721,13 +10728,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10770,41 +10770,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -10837,57 +10837,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="63" t="s">
+      <c r="K4" s="58"/>
+      <c r="L4" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="58" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="27" t="s">
         <v>1</v>
       </c>
@@ -10918,16 +10918,16 @@
       <c r="K5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="65"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="71"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="S6" s="47"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="58" t="s">
+      <c r="U6" s="66" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="S7" s="47"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="59"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -11093,7 +11093,7 @@
       </c>
       <c r="S8" s="47"/>
       <c r="T8" s="9"/>
-      <c r="U8" s="59"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -11150,7 +11150,7 @@
       </c>
       <c r="S9" s="47"/>
       <c r="T9" s="9"/>
-      <c r="U9" s="59"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="S10" s="47"/>
       <c r="T10" s="9"/>
-      <c r="U10" s="59"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -11264,7 +11264,7 @@
       </c>
       <c r="S11" s="47"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="59"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="S12" s="47"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="58" t="s">
+      <c r="U12" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11380,7 +11380,7 @@
       </c>
       <c r="S13" s="47"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="59"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="S14" s="47"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="59"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="S15" s="47"/>
       <c r="T15" s="9"/>
-      <c r="U15" s="59"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -11521,7 +11521,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="47"/>
       <c r="T16" s="9"/>
-      <c r="U16" s="60"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -13222,13 +13222,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13240,6 +13233,13 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/1.XuLyBH/XLBH2307_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/1.XuLyBH/XLBH2307_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="56" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm.Criteria" localSheetId="3">VNSH01!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="4">VNSH02!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -420,10 +420,10 @@
     <t>ID mới: 202210110168</t>
   </si>
   <si>
-    <t>Đổi thiết bị mới</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>Nhập kho đổi thiết bị mới</t>
   </si>
 </sst>
 </file>
@@ -795,6 +795,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -812,30 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -1176,41 +1176,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -1243,57 +1243,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="64" t="s">
+      <c r="K4" s="66"/>
+      <c r="L4" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="66" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1324,16 +1324,16 @@
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="71"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="S6" s="47"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="58" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="S7" s="47"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="S8" s="47"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="S9" s="47"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="S10" s="47"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="S11" s="47"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="S12" s="47"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="S13" s="47"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="S14" s="47"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="S15" s="47"/>
       <c r="T15" s="56"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="S16" s="47"/>
       <c r="T16" s="56"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3890,13 +3890,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3908,6 +3901,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3951,41 +3951,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -4018,57 +4018,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="64" t="s">
+      <c r="K4" s="66"/>
+      <c r="L4" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="66" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4099,16 +4099,16 @@
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="71"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="S6" s="47"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="58" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="S7" s="47"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -4241,7 +4241,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="47"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="47"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -4299,7 +4299,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="47"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="47"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -4357,7 +4357,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="47"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4388,7 +4388,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="47"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="47"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -4446,7 +4446,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="47"/>
       <c r="T15" s="56"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="47"/>
       <c r="T16" s="56"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -6176,13 +6176,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6194,6 +6187,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6237,41 +6237,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -6304,57 +6304,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="64" t="s">
+      <c r="K4" s="66"/>
+      <c r="L4" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="66" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="54" t="s">
         <v>1</v>
       </c>
@@ -6385,16 +6385,16 @@
       <c r="K5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="71"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6438,7 +6438,7 @@
       <c r="R6" s="46"/>
       <c r="S6" s="47"/>
       <c r="T6" s="55"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="58" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6469,7 +6469,7 @@
       <c r="R7" s="46"/>
       <c r="S7" s="47"/>
       <c r="T7" s="55"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -6498,7 +6498,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="47"/>
       <c r="T8" s="55"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -6527,7 +6527,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="47"/>
       <c r="T9" s="55"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -6556,7 +6556,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="47"/>
       <c r="T10" s="55"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -6585,7 +6585,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="47"/>
       <c r="T11" s="55"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -6614,7 +6614,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="47"/>
       <c r="T12" s="55"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6645,7 +6645,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="47"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -6674,7 +6674,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="47"/>
       <c r="T14" s="55"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -6703,7 +6703,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="47"/>
       <c r="T15" s="55"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -6732,7 +6732,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="47"/>
       <c r="T16" s="55"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -8433,6 +8433,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8444,13 +8451,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8461,8 +8461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8494,41 +8494,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -8561,57 +8561,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="64" t="s">
+      <c r="K4" s="66"/>
+      <c r="L4" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="66" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -8642,16 +8642,16 @@
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="71"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="42"/>
@@ -8695,7 +8695,7 @@
       <c r="R6" s="46"/>
       <c r="S6" s="47"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="58" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8733,7 +8733,7 @@
         <v>98</v>
       </c>
       <c r="M7" s="45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N7" s="43"/>
       <c r="O7" s="43" t="s">
@@ -8746,7 +8746,7 @@
       <c r="R7" s="46"/>
       <c r="S7" s="47"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -8775,7 +8775,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="47"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -8804,7 +8804,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="47"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -8833,7 +8833,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="47"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -8862,7 +8862,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="47"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -8891,7 +8891,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="47"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8922,7 +8922,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="47"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -8951,7 +8951,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="47"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -8980,7 +8980,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="47"/>
       <c r="T15" s="52"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -9009,7 +9009,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="47"/>
       <c r="T16" s="52"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -10710,13 +10710,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10728,6 +10721,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10770,41 +10770,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -10837,57 +10837,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="64" t="s">
+      <c r="K4" s="66"/>
+      <c r="L4" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="66" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="27" t="s">
         <v>1</v>
       </c>
@@ -10918,16 +10918,16 @@
       <c r="K5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="71"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="S6" s="47"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="58" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="S7" s="47"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -11093,7 +11093,7 @@
       </c>
       <c r="S8" s="47"/>
       <c r="T8" s="9"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -11150,7 +11150,7 @@
       </c>
       <c r="S9" s="47"/>
       <c r="T9" s="9"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="S10" s="47"/>
       <c r="T10" s="9"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -11264,7 +11264,7 @@
       </c>
       <c r="S11" s="47"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="S12" s="47"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11380,7 +11380,7 @@
       </c>
       <c r="S13" s="47"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="S14" s="47"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="S15" s="47"/>
       <c r="T15" s="9"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -11521,7 +11521,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="47"/>
       <c r="T16" s="9"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -13222,6 +13222,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13233,13 +13240,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
